--- a/news-demo/doc/新闻栏目－对应表.xlsx
+++ b/news-demo/doc/新闻栏目－对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="700" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="1500" yWindow="0" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="新闻栏目－对应表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>分类名称</t>
   </si>
@@ -31,9 +31,6 @@
   </si>
   <si>
     <t>说明</t>
-  </si>
-  <si>
-    <t>首页</t>
   </si>
   <si>
     <t>国内</t>
@@ -77,6 +74,26 @@
   </si>
   <si>
     <t>新闻栏目－对应表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>工委</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>工委频道</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门内部频道</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>人民日报</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华日报</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -208,7 +225,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -216,12 +233,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -240,14 +260,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="13">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -577,181 +609,294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16" thickBot="1"/>
     <row r="3" spans="1:4" ht="16" thickBot="1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16" thickBot="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="16" thickBot="1">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="16" thickBot="1">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="4">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" ht="16" thickBot="1">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
-        <v>1001</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="4">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" ht="16" thickBot="1">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
-        <v>1002</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="4">
+        <v>1003</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" ht="16" thickBot="1">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
-        <v>1003</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="4">
+        <v>1004</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" ht="16" thickBot="1">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
-        <v>1004</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="4">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" ht="16" thickBot="1">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="5">
-        <v>1005</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1">
-      <c r="A10" s="4" t="s">
+      <c r="B10" s="4">
+        <v>1006</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" ht="16" thickBot="1">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
-        <v>1006</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" ht="16" thickBot="1">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="4">
+        <v>1007</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" ht="16" thickBot="1">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="5">
-        <v>1007</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" ht="16" thickBot="1">
-      <c r="A12" s="4" t="s">
+      <c r="B12" s="4">
+        <v>1008</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" ht="16" thickBot="1">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" ht="16" thickBot="1">
+      <c r="A14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" ht="16" thickBot="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="16" thickBot="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="31" thickBot="1">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1100</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="16" thickBot="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="16" thickBot="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="16" thickBot="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="16" thickBot="1">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1200</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="16" thickBot="1">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1201</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="16" thickBot="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" ht="16" thickBot="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" ht="16" thickBot="1">
+      <c r="A25" s="5"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" ht="16" thickBot="1">
+      <c r="A26" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="5">
-        <v>1008</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="7" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="7" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="7" t="s">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/news-demo/doc/新闻栏目－对应表.xlsx
+++ b/news-demo/doc/新闻栏目－对应表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="0" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
+    <workbookView xWindow="2440" yWindow="0" windowWidth="25600" windowHeight="14460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="新闻栏目－对应表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>分类名称</t>
   </si>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>工委频道</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>部门内部频道</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -94,6 +90,85 @@
   </si>
   <si>
     <t>新华日报</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>app栏目展现效果</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>房产</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>互联网</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>人民日报</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新华日报</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国青年报</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家机关青年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家机关青年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中国青年报</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>女人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>女人</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -101,7 +176,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,6 +230,11 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Abadi MT Condensed Extra Bold"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -164,7 +244,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -224,8 +304,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -239,8 +330,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -257,29 +370,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="35">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -609,13 +750,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -728,175 +872,285 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1009</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="16" thickBot="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1010</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" ht="16" thickBot="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1011</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1012</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" ht="31" thickBot="1">
-      <c r="A17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1100</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>19</v>
-      </c>
+    <row r="17" spans="1:5" ht="16" thickBot="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" ht="16" thickBot="1">
+    <row r="18" spans="1:5" ht="16" thickBot="1">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" ht="16" thickBot="1">
-      <c r="A19" s="3"/>
+    <row r="19" spans="1:5" ht="16" thickBot="1">
+      <c r="A19" s="5"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" ht="16" thickBot="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+    <row r="20" spans="1:5" ht="31" thickBot="1">
+      <c r="A20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1100</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" ht="16" thickBot="1">
-      <c r="A21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>1200</v>
-      </c>
+    <row r="21" spans="1:5" ht="16" thickBot="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" ht="16" thickBot="1">
-      <c r="A22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1201</v>
-      </c>
+    <row r="22" spans="1:5" ht="16" thickBot="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" ht="16" thickBot="1">
-      <c r="A23" s="5"/>
+    <row r="23" spans="1:5" ht="16" thickBot="1">
+      <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" ht="16" thickBot="1">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
+    <row r="24" spans="1:5" ht="16" thickBot="1">
+      <c r="A24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1200</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" ht="16" thickBot="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
+    <row r="25" spans="1:5" ht="16" thickBot="1">
+      <c r="A25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1201</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" ht="16" thickBot="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
+    <row r="26" spans="1:5" ht="16" thickBot="1">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1202</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+    <row r="27" spans="1:5" ht="16" thickBot="1">
+      <c r="A27" s="5"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="16" thickBot="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" ht="16" thickBot="1">
+      <c r="A29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="A33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="A34" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="6" t="s">
+      <c r="A35" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16" thickBot="1">
+      <c r="A40" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16" thickBot="1">
+      <c r="A41" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16" thickBot="1">
+      <c r="A42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16" thickBot="1">
+      <c r="A43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16" thickBot="1">
+      <c r="A44" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16" thickBot="1">
+      <c r="A45" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16" thickBot="1">
+      <c r="A46" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16" thickBot="1">
+      <c r="A47" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16" thickBot="1">
+      <c r="A48" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="16" thickBot="1">
+      <c r="A49" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="16" thickBot="1">
+      <c r="A50" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="16" thickBot="1">
+      <c r="A51" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="16" thickBot="1">
+      <c r="A52" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="16" thickBot="1">
+      <c r="A53" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="9"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A32:E32"/>
     <mergeCell ref="A33:E33"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:E36"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
